--- a/EAM_API/EAM.API/ExportFiles/2025/06/06/BaoCaoKeHoachBTBD.xlsx
+++ b/EAM_API/EAM.API/ExportFiles/2025/06/06/BaoCaoKeHoachBTBD.xlsx
@@ -63,9 +63,6 @@
     <x:t>Loại kế hoạch:</x:t>
   </x:si>
   <x:si>
-    <x:t>Ngày giờ: 09/05/2025 10:35</x:t>
-  </x:si>
-  <x:si>
     <x:t>Stt</x:t>
   </x:si>
   <x:si>
@@ -161,7 +158,16 @@
     <x:t>NGƯỜI LẬP KẾ HOẠCH  / BÁO CÁO</x:t>
   </x:si>
   <x:si>
-    <x:t>Ngày giờ: 06/06/2025 11:49</x:t>
+    <x:t>Phòng Kỹ thuật</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kho A- Bãi giữ xe bồn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Máy nén khí</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ngày giờ: 06/06/2025 06:01</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1028,8 +1034,8 @@
       <x:c r="G5" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="H5" s="38" t="s">
-        <x:v>3</x:v>
+      <x:c r="H5" s="38">
+        <x:v>2025</x:v>
       </x:c>
       <x:c r="I5" s="38"/>
       <x:c r="J5" s="38"/>
@@ -1059,7 +1065,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H6" s="12" t="s">
-        <x:v>3</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I6" s="12"/>
       <x:c r="J6" s="12"/>
@@ -1089,7 +1095,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H7" s="16" t="s">
-        <x:v>3</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I7" s="16"/>
       <x:c r="J7" s="16"/>
@@ -1119,7 +1125,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H8" s="16" t="s">
-        <x:v>3</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I8" s="16"/>
       <x:c r="J8" s="16"/>
@@ -1170,7 +1176,7 @@
     </x:row>
     <x:row r="10" spans="1:24">
       <x:c r="A10" s="44" t="s">
-        <x:v>8</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B10" s="44"/>
       <x:c r="C10" s="23"/>
@@ -1198,34 +1204,34 @@
     </x:row>
     <x:row r="11" spans="1:24" ht="19.95" customHeight="1">
       <x:c r="A11" s="25" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B11" s="26" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B11" s="26" t="s">
+      <x:c r="C11" s="26" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C11" s="26" t="s">
+      <x:c r="D11" s="26" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D11" s="26" t="s">
+      <x:c r="E11" s="25" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="E11" s="25" t="s">
+      <x:c r="F11" s="25" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="F11" s="25" t="s">
+      <x:c r="G11" s="25" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="G11" s="25" t="s">
+      <x:c r="H11" s="26" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="H11" s="26" t="s">
+      <x:c r="I11" s="25" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="I11" s="25" t="s">
+      <x:c r="J11" s="26" t="s">
         <x:v>17</x:v>
-      </x:c>
-      <x:c r="J11" s="26" t="s">
-        <x:v>18</x:v>
       </x:c>
       <x:c r="K11" s="27"/>
       <x:c r="L11" s="27"/>
@@ -1239,10 +1245,10 @@
       <x:c r="T11" s="27"/>
       <x:c r="U11" s="27"/>
       <x:c r="V11" s="26" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="W11" s="26" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="W11" s="26" t="s">
-        <x:v>20</x:v>
       </x:c>
       <x:c r="X11" s="9"/>
     </x:row>
@@ -1298,10 +1304,10 @@
     </x:row>
     <x:row r="13" spans="1:24">
       <x:c r="A13" s="30" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B13" s="31" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="B13" s="31" t="s">
-        <x:v>22</x:v>
       </x:c>
       <x:c r="C13" s="32">
         <x:v>1</x:v>
@@ -1332,10 +1338,10 @@
     </x:row>
     <x:row r="14" spans="1:24" ht="39.6" customHeight="1">
       <x:c r="A14" s="30" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B14" s="31" t="s">
         <x:v>23</x:v>
-      </x:c>
-      <x:c r="B14" s="31" t="s">
-        <x:v>24</x:v>
       </x:c>
       <x:c r="C14" s="32">
         <x:v>1</x:v>
@@ -1366,68 +1372,68 @@
     </x:row>
     <x:row r="15" spans="1:24" ht="66" customHeight="1">
       <x:c r="A15" s="30" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B15" s="31" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="B15" s="31" t="s">
-        <x:v>26</x:v>
       </x:c>
       <x:c r="C15" s="32">
         <x:v>7100003380</x:v>
       </x:c>
       <x:c r="D15" s="31" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E15" s="33"/>
       <x:c r="F15" s="32">
         <x:v>100000017242</x:v>
       </x:c>
       <x:c r="G15" s="31" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H15" s="34" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="H15" s="34" t="s">
+      <x:c r="I15" s="34" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="I15" s="34" t="s">
+      <x:c r="J15" s="35" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="J15" s="35" t="s">
+      <x:c r="K15" s="35" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="L15" s="35" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M15" s="35" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N15" s="35" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="K15" s="35" t="s">
+      <x:c r="O15" s="35" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="L15" s="35" t="s">
+      <x:c r="P15" s="35" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="M15" s="35" t="s">
+      <x:c r="Q15" s="35" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="N15" s="35" t="s">
+      <x:c r="R15" s="35" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="S15" s="35" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="T15" s="35" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="U15" s="35" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V15" s="34" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="O15" s="35" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="P15" s="35" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="Q15" s="35" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="R15" s="35" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="S15" s="35" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="T15" s="35" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="U15" s="35" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="V15" s="34" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="W15" s="34"/>
       <x:c r="X15" s="7"/>
@@ -1460,7 +1466,7 @@
     </x:row>
     <x:row r="17" spans="1:24">
       <x:c r="A17" s="36" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B17" s="36"/>
       <x:c r="C17" s="36"/>
@@ -1533,7 +1539,7 @@
       <x:c r="R19" s="7"/>
       <x:c r="S19" s="7"/>
       <x:c r="T19" s="45" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="U19" s="45"/>
       <x:c r="V19" s="45"/>
@@ -1543,14 +1549,14 @@
     <x:row r="20" spans="1:24">
       <x:c r="A20" s="7"/>
       <x:c r="B20" s="5" t="s">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C20" s="7"/>
       <x:c r="D20" s="7"/>
       <x:c r="E20" s="7"/>
       <x:c r="F20" s="7"/>
       <x:c r="G20" s="5" t="s">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H20" s="5"/>
       <x:c r="I20" s="5"/>
@@ -1565,17 +1571,12 @@
       <x:c r="R20" s="7"/>
       <x:c r="S20" s="7"/>
       <x:c r="T20" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="U20" s="5"/>
       <x:c r="V20" s="5"/>
       <x:c r="W20" s="5"/>
       <x:c r="X20" s="7"/>
-    </x:row>
-    <x:row r="28" spans="1:24">
-      <x:c r="F28" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="24">
